--- a/outputs/1937_Male_White_Prostate_SUMMARY.xlsx
+++ b/outputs/1937_Male_White_Prostate_SUMMARY.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94.9990500094999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>132.503919486168</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>98864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>115.4196618406399</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>122.2556161173654</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>98154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>143.504376883495</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>97557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>156.9166393173613</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>97503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>136.515268154991</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>97424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>168.4435406010558</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>97361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>164.4280473141706</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>97306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>159.4141786055887</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>97230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>161.5891313297653</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180.2507029777416</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>97086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184.5037467660307</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>97016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>174.3616198091308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>96924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161.1853321347757</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>96782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>189.3606233379208</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>96640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>148.1650330521997</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>96513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>189.9364802590609</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>117.5014817664736</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>96168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>150.0203152510236</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>95986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7595819542906</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>95778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>125.5821254774737</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>95554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>95.45087426707364</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>95336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>88.30764702171948</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>95121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68.49531597416146</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>94896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38.01799518438728</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17.99589270213622</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>94465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.060929161759869</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>94256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.63128574769833</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.196011377800505</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.471129421307661</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>93693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.278623994523361</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>93487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.144450162978212</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>93263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.596696719285614</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>93058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.23258445126879</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>92804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.479551615028241</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>92598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.331395034055594</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>92348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.258001107720377</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>92080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.177249915631566</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>91858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.09173881240652</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>91596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.380825128412937</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>91306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.206190570741501</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>90653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.21491300929156</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.337375265599448</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.35173061023842</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>89505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.613625391550371</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>89068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.128680910619759</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>88598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.270070258674506</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>88102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.567357098814771</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>87577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.149544205722431</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>86990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>86317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>85564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>84766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>42.8913538179262</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>83932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>86.71042331546938</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>83034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>142.5872890134666</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>82054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>181.3762384789073</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>81046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>272.5306596992162</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>79990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>319.6509208990817</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>78835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>368.9656062130712</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>77513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>401.2788295814859</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>76006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>489.5254955607414</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>74561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>576.0921747479597</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>72904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>603.5283194057567</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>71081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>661.553350377721</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>69230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>726.6837068299352</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>67291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>693.4961719625021</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>65176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>691.6243654822335</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>63039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>719.2826879495517</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>60893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>706.6835495020705</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>58441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>712.6572962105301</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>55706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>712.7421617318117</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>52753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>644.3533237723958</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>49506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>692.2442602317608</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>46081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>535.4278705538259</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>42395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>599.8753505765036</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>38507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>478.3717963585759</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>34491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>438.784599650292</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>30310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>371.0144927536232</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>25874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>320.9969788519638</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>21183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>342.9660209590346</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>15744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>195.7798564281053</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>9193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>379.8670465337132</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>172.1170395869191</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.88866259334691</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>252.1008403361345</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>153.8461538461538</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>230.4147465437788</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
